--- a/Test_framework/data/TestLogin.xlsx
+++ b/Test_framework/data/TestLogin.xlsx
@@ -24,13 +24,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>kon</t>
-  </si>
-  <si>
     <t>w123456</t>
   </si>
   <si>
     <t>kong</t>
+  </si>
+  <si>
+    <t>kon</t>
   </si>
   <si>
     <t>123456</t>
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,6 +52,59 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,10 +117,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,7 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,112 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,13 +208,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,169 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,26 +402,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,6 +443,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -451,16 +462,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1025,43 +1025,44 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
@@ -1172,12 +1173,6 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_framework/data/TestLogin.xlsx
+++ b/Test_framework/data/TestLogin.xlsx
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,29 +184,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -208,6 +208,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,36 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +399,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -413,15 +437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,21 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Test_framework/data/TestLogin.xlsx
+++ b/Test_framework/data/TestLogin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>username</t>
   </si>
@@ -24,16 +24,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>w123456</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>kong</t>
-  </si>
-  <si>
-    <t>kon</t>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -41,10 +35,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,6 +50,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -63,10 +64,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,7 +95,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,26 +133,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -132,68 +156,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,187 +202,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,41 +396,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,26 +416,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,8 +438,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,10 +501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +513,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1001,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1025,44 +1019,33 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>

--- a/Test_framework/data/TestLogin.xlsx
+++ b/Test_framework/data/TestLogin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>username</t>
   </si>
@@ -24,10 +24,16 @@
     <t>password</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -35,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +56,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -57,7 +78,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,8 +114,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,7 +171,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,91 +194,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,13 +208,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,37 +328,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,66 +376,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,60 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,11 +402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,21 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,6 +467,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -513,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,7 +1007,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1016,15 +1022,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
